--- a/assets/files/Import-File.xlsx
+++ b/assets/files/Import-File.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FDA891-9F5B-46CE-89F9-4A36AA98B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB453262-676E-497C-8B36-8128C59443EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCF5E1B8-065E-421F-AF19-CEA40BE1BF6F}"/>
   </bookViews>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBFAAF6-035D-4CB0-91AA-B90BCE667DB4}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,71 +454,55 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
